--- a/FA_IMPORT_A02R6E9 .xlsx
+++ b/FA_IMPORT_A02R6E9 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\31.-A02R6E9 (ALABAMA)\2. PARA IQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E55E3FF-F9C8-407D-8722-A0A8FD92679F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8437462-4F75-4FD5-8447-E6D2FAB00CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{BD2627E8-6071-40B8-B93A-BCD0A9931222}"/>
   </bookViews>
@@ -1556,8 +1556,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:E888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FA_IMPORT_A02R6E9 .xlsx
+++ b/FA_IMPORT_A02R6E9 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\31.-A02R6E9 (ALABAMA)\2. PARA IQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8437462-4F75-4FD5-8447-E6D2FAB00CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9806ECF3-B219-4EF5-971F-CADDF4F4AB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{BD2627E8-6071-40B8-B93A-BCD0A9931222}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
   <dimension ref="A1:E888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
